--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1592.826945389181</v>
+        <v>1702.587440420835</v>
       </c>
       <c r="AB2" t="n">
-        <v>2179.37609724686</v>
+        <v>2329.555248840459</v>
       </c>
       <c r="AC2" t="n">
-        <v>1971.379501299182</v>
+        <v>2107.225765442451</v>
       </c>
       <c r="AD2" t="n">
-        <v>1592826.94538918</v>
+        <v>1702587.440420835</v>
       </c>
       <c r="AE2" t="n">
-        <v>2179376.09724686</v>
+        <v>2329555.248840459</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.966515170985542e-07</v>
+        <v>1.474013881494618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.0769675925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1971379.501299182</v>
+        <v>2107225.765442451</v>
       </c>
     </row>
     <row r="3">
@@ -3058,28 +3058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>933.2519097636324</v>
+        <v>1018.621114059379</v>
       </c>
       <c r="AB3" t="n">
-        <v>1276.916435107075</v>
+        <v>1393.722346648003</v>
       </c>
       <c r="AC3" t="n">
-        <v>1155.049322703928</v>
+        <v>1260.707441985516</v>
       </c>
       <c r="AD3" t="n">
-        <v>933251.9097636323</v>
+        <v>1018621.114059379</v>
       </c>
       <c r="AE3" t="n">
-        <v>1276916.435107075</v>
+        <v>1393722.346648003</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.122108004108887e-06</v>
+        <v>2.07619359166814e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.54166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1155049.322703928</v>
+        <v>1260707.441985516</v>
       </c>
     </row>
     <row r="4">
@@ -3164,28 +3164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>788.3585317852542</v>
+        <v>861.4468841213027</v>
       </c>
       <c r="AB4" t="n">
-        <v>1078.666923112364</v>
+        <v>1178.669631209081</v>
       </c>
       <c r="AC4" t="n">
-        <v>975.7204658890541</v>
+        <v>1066.179055879703</v>
       </c>
       <c r="AD4" t="n">
-        <v>788358.5317852541</v>
+        <v>861446.8841213026</v>
       </c>
       <c r="AE4" t="n">
-        <v>1078666.923112364</v>
+        <v>1178669.631209082</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.249517627714998e-06</v>
+        <v>2.311934753017335e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>975720.4658890541</v>
+        <v>1066179.055879703</v>
       </c>
     </row>
     <row r="5">
@@ -3270,28 +3270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>710.3211582929468</v>
+        <v>783.494761975016</v>
       </c>
       <c r="AB5" t="n">
-        <v>971.892745934249</v>
+        <v>1072.012098683616</v>
       </c>
       <c r="AC5" t="n">
-        <v>879.1366663223197</v>
+        <v>969.7007685636811</v>
       </c>
       <c r="AD5" t="n">
-        <v>710321.1582929469</v>
+        <v>783494.761975016</v>
       </c>
       <c r="AE5" t="n">
-        <v>971892.745934249</v>
+        <v>1072012.098683616</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.317633984605817e-06</v>
+        <v>2.437967847110455e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.53356481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>879136.6663223197</v>
+        <v>969700.768563681</v>
       </c>
     </row>
     <row r="6">
@@ -3376,28 +3376,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>665.7949077466707</v>
+        <v>726.7730003236127</v>
       </c>
       <c r="AB6" t="n">
-        <v>910.9699655772976</v>
+        <v>994.4028820046515</v>
       </c>
       <c r="AC6" t="n">
-        <v>824.0282706169763</v>
+        <v>899.4984665993372</v>
       </c>
       <c r="AD6" t="n">
-        <v>665794.9077466707</v>
+        <v>726773.0003236127</v>
       </c>
       <c r="AE6" t="n">
-        <v>910969.9655772976</v>
+        <v>994402.8820046515</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.361959509059055e-06</v>
+        <v>2.519981672410834e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.15740740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>824028.2706169763</v>
+        <v>899498.4665993373</v>
       </c>
     </row>
     <row r="7">
@@ -3482,28 +3482,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>615.5922162382261</v>
+        <v>688.6804790657235</v>
       </c>
       <c r="AB7" t="n">
-        <v>842.2804282690058</v>
+        <v>942.2830138961752</v>
       </c>
       <c r="AC7" t="n">
-        <v>761.8943663430169</v>
+        <v>852.3528455524396</v>
       </c>
       <c r="AD7" t="n">
-        <v>615592.2162382262</v>
+        <v>688680.4790657235</v>
       </c>
       <c r="AE7" t="n">
-        <v>842280.4282690058</v>
+        <v>942283.0138961752</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.393365508612416e-06</v>
+        <v>2.578090994128401e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.9056712962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>761894.366343017</v>
+        <v>852352.8455524396</v>
       </c>
     </row>
     <row r="8">
@@ -3588,28 +3588,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>597.6216886941934</v>
+        <v>670.7099515216909</v>
       </c>
       <c r="AB8" t="n">
-        <v>817.6923596795383</v>
+        <v>917.6949453067075</v>
       </c>
       <c r="AC8" t="n">
-        <v>739.6529485101572</v>
+        <v>830.1114277195798</v>
       </c>
       <c r="AD8" t="n">
-        <v>597621.6886941934</v>
+        <v>670709.9515216908</v>
       </c>
       <c r="AE8" t="n">
-        <v>817692.3596795383</v>
+        <v>917694.9453067075</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.407492956572039e-06</v>
+        <v>2.604230471623428e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.79571759259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>739652.9485101572</v>
+        <v>830111.4277195798</v>
       </c>
     </row>
     <row r="9">
@@ -3694,28 +3694,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>596.2114382608386</v>
+        <v>669.2997010883361</v>
       </c>
       <c r="AB9" t="n">
-        <v>815.7627928207645</v>
+        <v>915.7653784479334</v>
       </c>
       <c r="AC9" t="n">
-        <v>737.9075368042204</v>
+        <v>828.366016013643</v>
       </c>
       <c r="AD9" t="n">
-        <v>596211.4382608386</v>
+        <v>669299.7010883361</v>
       </c>
       <c r="AE9" t="n">
-        <v>815762.7928207645</v>
+        <v>915765.3784479334</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.410118876267136e-06</v>
+        <v>2.609089110563024e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.77546296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>737907.5368042204</v>
+        <v>828366.016013643</v>
       </c>
     </row>
     <row r="10">
@@ -3800,28 +3800,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>598.6239693811152</v>
+        <v>671.7122322086126</v>
       </c>
       <c r="AB10" t="n">
-        <v>819.0637243328879</v>
+        <v>919.0663099600571</v>
       </c>
       <c r="AC10" t="n">
-        <v>740.8934320457133</v>
+        <v>831.3519112551359</v>
       </c>
       <c r="AD10" t="n">
-        <v>598623.9693811152</v>
+        <v>671712.2322086126</v>
       </c>
       <c r="AE10" t="n">
-        <v>819063.7243328879</v>
+        <v>919066.309960057</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.410013839479332e-06</v>
+        <v>2.60889476500544e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.77835648148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>740893.4320457133</v>
+        <v>831351.9112551359</v>
       </c>
     </row>
   </sheetData>
@@ -4097,28 +4097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1180.807822844018</v>
+        <v>1286.595891183901</v>
       </c>
       <c r="AB2" t="n">
-        <v>1615.63335677975</v>
+        <v>1760.377258922571</v>
       </c>
       <c r="AC2" t="n">
-        <v>1461.439576764348</v>
+        <v>1592.369324036001</v>
       </c>
       <c r="AD2" t="n">
-        <v>1180807.822844018</v>
+        <v>1286595.891183901</v>
       </c>
       <c r="AE2" t="n">
-        <v>1615633.35677975</v>
+        <v>1760377.258922571</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.436498448011777e-07</v>
+        <v>1.798742239935056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.65798611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1461439.576764348</v>
+        <v>1592369.324036001</v>
       </c>
     </row>
     <row r="3">
@@ -4203,28 +4203,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>756.5918373680445</v>
+        <v>838.8524814424936</v>
       </c>
       <c r="AB3" t="n">
-        <v>1035.202330363089</v>
+        <v>1147.754972669239</v>
       </c>
       <c r="AC3" t="n">
-        <v>936.4040728688312</v>
+        <v>1038.214848961908</v>
       </c>
       <c r="AD3" t="n">
-        <v>756591.8373680445</v>
+        <v>838852.4814424936</v>
       </c>
       <c r="AE3" t="n">
-        <v>1035202.330363089</v>
+        <v>1147754.972669239</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.246482721473511e-06</v>
+        <v>2.375988439796764e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.61284722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>936404.0728688312</v>
+        <v>1038214.848961908</v>
       </c>
     </row>
     <row r="4">
@@ -4309,28 +4309,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>647.3559794966779</v>
+        <v>717.9382522929814</v>
       </c>
       <c r="AB4" t="n">
-        <v>885.7410104775545</v>
+        <v>982.3147899875667</v>
       </c>
       <c r="AC4" t="n">
-        <v>801.2071315828919</v>
+        <v>888.5640451186194</v>
       </c>
       <c r="AD4" t="n">
-        <v>647355.979496678</v>
+        <v>717938.2522929814</v>
       </c>
       <c r="AE4" t="n">
-        <v>885741.0104775545</v>
+        <v>982314.7899875666</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.359542501946265e-06</v>
+        <v>2.59149783016494e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.5625</v>
       </c>
       <c r="AH4" t="n">
-        <v>801207.1315828919</v>
+        <v>888564.0451186195</v>
       </c>
     </row>
     <row r="5">
@@ -4415,28 +4415,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>591.789948909362</v>
+        <v>650.6085990814992</v>
       </c>
       <c r="AB5" t="n">
-        <v>809.7131160277305</v>
+        <v>890.1913880889556</v>
       </c>
       <c r="AC5" t="n">
-        <v>732.4352326735391</v>
+        <v>805.2327714012051</v>
       </c>
       <c r="AD5" t="n">
-        <v>591789.948909362</v>
+        <v>650608.5990814992</v>
       </c>
       <c r="AE5" t="n">
-        <v>809713.1160277305</v>
+        <v>890191.3880889555</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.420228602276906e-06</v>
+        <v>2.70717490322657e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.06770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>732435.2326735391</v>
+        <v>805232.7714012051</v>
       </c>
     </row>
     <row r="6">
@@ -4521,28 +4521,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>549.537626494853</v>
+        <v>620.0345584365848</v>
       </c>
       <c r="AB6" t="n">
-        <v>751.901624459292</v>
+        <v>848.3586368471063</v>
       </c>
       <c r="AC6" t="n">
-        <v>680.1411887214542</v>
+        <v>767.3924792252428</v>
       </c>
       <c r="AD6" t="n">
-        <v>549537.6264948531</v>
+        <v>620034.5584365848</v>
       </c>
       <c r="AE6" t="n">
-        <v>751901.6244592919</v>
+        <v>848358.6368471063</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.449457896796051e-06</v>
+        <v>2.762890449607194e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.84490740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>680141.1887214542</v>
+        <v>767392.4792252429</v>
       </c>
     </row>
     <row r="7">
@@ -4627,28 +4627,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>543.6908778613426</v>
+        <v>614.1878098030745</v>
       </c>
       <c r="AB7" t="n">
-        <v>743.9018450385779</v>
+        <v>840.3588574263924</v>
       </c>
       <c r="AC7" t="n">
-        <v>672.9048970208922</v>
+        <v>760.1561875246807</v>
       </c>
       <c r="AD7" t="n">
-        <v>543690.8778613426</v>
+        <v>614187.8098030745</v>
       </c>
       <c r="AE7" t="n">
-        <v>743901.8450385779</v>
+        <v>840358.8574263924</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.453804260293322e-06</v>
+        <v>2.771175289217696e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.8130787037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>672904.8970208922</v>
+        <v>760156.1875246807</v>
       </c>
     </row>
   </sheetData>
@@ -4924,28 +4924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>526.3031130012624</v>
+        <v>588.9985166023872</v>
       </c>
       <c r="AB2" t="n">
-        <v>720.1111380629694</v>
+        <v>805.8937551960256</v>
       </c>
       <c r="AC2" t="n">
-        <v>651.3847417285687</v>
+        <v>728.9803862791057</v>
       </c>
       <c r="AD2" t="n">
-        <v>526303.1130012624</v>
+        <v>588998.5166023872</v>
       </c>
       <c r="AE2" t="n">
-        <v>720111.1380629694</v>
+        <v>805893.7551960256</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.419446968749494e-06</v>
+        <v>3.02305056999966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.35821759259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>651384.7417285687</v>
+        <v>728980.3862791057</v>
       </c>
     </row>
     <row r="3">
@@ -5030,28 +5030,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>439.3541762710992</v>
+        <v>501.9642390176523</v>
       </c>
       <c r="AB3" t="n">
-        <v>601.143766912397</v>
+        <v>686.8096169232556</v>
       </c>
       <c r="AC3" t="n">
-        <v>543.7714495088529</v>
+        <v>621.2614710274509</v>
       </c>
       <c r="AD3" t="n">
-        <v>439354.1762710992</v>
+        <v>501964.2390176523</v>
       </c>
       <c r="AE3" t="n">
-        <v>601143.766912397</v>
+        <v>686809.6169232556</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.551970718373069e-06</v>
+        <v>3.305291474843739e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.30208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>543771.4495088529</v>
+        <v>621261.4710274509</v>
       </c>
     </row>
   </sheetData>
@@ -5327,28 +5327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>719.1645831993811</v>
+        <v>795.9671555227835</v>
       </c>
       <c r="AB2" t="n">
-        <v>983.9927100356041</v>
+        <v>1089.07737777884</v>
       </c>
       <c r="AC2" t="n">
-        <v>890.0818268322477</v>
+        <v>985.1373613733271</v>
       </c>
       <c r="AD2" t="n">
-        <v>719164.5831993811</v>
+        <v>795967.1555227835</v>
       </c>
       <c r="AE2" t="n">
-        <v>983992.7100356041</v>
+        <v>1089077.37777884</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.227388806835165e-06</v>
+        <v>2.492023625047804e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>890081.8268322477</v>
+        <v>985137.3613733271</v>
       </c>
     </row>
     <row r="3">
@@ -5433,28 +5433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>511.8837504229934</v>
+        <v>577.5439344996032</v>
       </c>
       <c r="AB3" t="n">
-        <v>700.381930046001</v>
+        <v>790.2210906224993</v>
       </c>
       <c r="AC3" t="n">
-        <v>633.5384616346224</v>
+        <v>714.8034988157538</v>
       </c>
       <c r="AD3" t="n">
-        <v>511883.7504229934</v>
+        <v>577543.9344996032</v>
       </c>
       <c r="AE3" t="n">
-        <v>700381.930046001</v>
+        <v>790221.0906224994</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.478747455836895e-06</v>
+        <v>3.002368585164858e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.34837962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>633538.4616346224</v>
+        <v>714803.4988157537</v>
       </c>
     </row>
     <row r="4">
@@ -5539,28 +5539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>478.6612957602811</v>
+        <v>533.5203654998338</v>
       </c>
       <c r="AB4" t="n">
-        <v>654.9255019052201</v>
+        <v>729.986101334223</v>
       </c>
       <c r="AC4" t="n">
-        <v>592.4203311971003</v>
+        <v>660.317252364812</v>
       </c>
       <c r="AD4" t="n">
-        <v>478661.2957602811</v>
+        <v>533520.3654998338</v>
       </c>
       <c r="AE4" t="n">
-        <v>654925.5019052201</v>
+        <v>729986.1013342231</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.524275037624241e-06</v>
+        <v>3.0948053165197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.00983796296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>592420.3311971002</v>
+        <v>660317.2523648121</v>
       </c>
     </row>
     <row r="5">
@@ -5645,28 +5645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>482.7148196961654</v>
+        <v>537.5738894357182</v>
       </c>
       <c r="AB5" t="n">
-        <v>660.471712183152</v>
+        <v>735.532311612155</v>
       </c>
       <c r="AC5" t="n">
-        <v>597.4372189502612</v>
+        <v>665.3341401179732</v>
       </c>
       <c r="AD5" t="n">
-        <v>482714.8196961654</v>
+        <v>537573.8894357182</v>
       </c>
       <c r="AE5" t="n">
-        <v>660471.712183152</v>
+        <v>735532.3116121551</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.522999105395806e-06</v>
+        <v>3.092214732965806e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.01851851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>597437.2189502612</v>
+        <v>665334.1401179732</v>
       </c>
     </row>
   </sheetData>
@@ -5942,28 +5942,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>413.7721181895993</v>
+        <v>474.0510479715601</v>
       </c>
       <c r="AB2" t="n">
-        <v>566.1412664445387</v>
+        <v>648.6175574909142</v>
       </c>
       <c r="AC2" t="n">
-        <v>512.1095385593292</v>
+        <v>586.7144081444401</v>
       </c>
       <c r="AD2" t="n">
-        <v>413772.1181895992</v>
+        <v>474051.0479715602</v>
       </c>
       <c r="AE2" t="n">
-        <v>566141.2664445387</v>
+        <v>648617.5574909142</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.543222534186539e-06</v>
+        <v>3.436455155171726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.80555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>512109.5385593291</v>
+        <v>586714.40814444</v>
       </c>
     </row>
     <row r="3">
@@ -6048,28 +6048,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>409.9658341902549</v>
+        <v>470.2447639722158</v>
       </c>
       <c r="AB3" t="n">
-        <v>560.9333407552371</v>
+        <v>643.4096318016126</v>
       </c>
       <c r="AC3" t="n">
-        <v>507.3986499884446</v>
+        <v>582.0035195735556</v>
       </c>
       <c r="AD3" t="n">
-        <v>409965.8341902549</v>
+        <v>470244.7639722158</v>
       </c>
       <c r="AE3" t="n">
-        <v>560933.340755237</v>
+        <v>643409.6318016126</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.558585500255144e-06</v>
+        <v>3.470665479849894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.68981481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>507398.6499884446</v>
+        <v>582003.5195735557</v>
       </c>
     </row>
   </sheetData>
@@ -6345,28 +6345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1275.296304509084</v>
+        <v>1382.020785256818</v>
       </c>
       <c r="AB2" t="n">
-        <v>1744.916665931504</v>
+        <v>1890.941808842345</v>
       </c>
       <c r="AC2" t="n">
-        <v>1578.384268340922</v>
+        <v>1710.472976559929</v>
       </c>
       <c r="AD2" t="n">
-        <v>1275296.304509084</v>
+        <v>1382020.785256818</v>
       </c>
       <c r="AE2" t="n">
-        <v>1744916.665931504</v>
+        <v>1890941.808842345</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.056141195295881e-07</v>
+        <v>1.712302274998397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.20196759259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>1578384.268340922</v>
+        <v>1710472.976559929</v>
       </c>
     </row>
     <row r="3">
@@ -6451,28 +6451,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>797.0069026173445</v>
+        <v>880.0621740559158</v>
       </c>
       <c r="AB3" t="n">
-        <v>1090.500005624023</v>
+        <v>1204.139892146251</v>
       </c>
       <c r="AC3" t="n">
-        <v>986.4242156136362</v>
+        <v>1089.218470860765</v>
       </c>
       <c r="AD3" t="n">
-        <v>797006.9026173445</v>
+        <v>880062.1740559158</v>
       </c>
       <c r="AE3" t="n">
-        <v>1090500.005624023</v>
+        <v>1204139.89214625</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.213210639438776e-06</v>
+        <v>2.293894599437507e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.84143518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>986424.2156136362</v>
+        <v>1089218.470860765</v>
       </c>
     </row>
     <row r="4">
@@ -6557,28 +6557,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>678.5834659947031</v>
+        <v>749.8468479602543</v>
       </c>
       <c r="AB4" t="n">
-        <v>928.4678351636265</v>
+        <v>1025.973538287419</v>
       </c>
       <c r="AC4" t="n">
-        <v>839.8561680884004</v>
+        <v>928.0560637561721</v>
       </c>
       <c r="AD4" t="n">
-        <v>678583.4659947031</v>
+        <v>749846.8479602543</v>
       </c>
       <c r="AE4" t="n">
-        <v>928467.8351636266</v>
+        <v>1025973.538287419</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.330585121042492e-06</v>
+        <v>2.515822004877252e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.70717592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>839856.1680884004</v>
+        <v>928056.0637561721</v>
       </c>
     </row>
     <row r="5">
@@ -6663,28 +6663,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>621.2484156114342</v>
+        <v>680.6346567579446</v>
       </c>
       <c r="AB5" t="n">
-        <v>850.0194897853346</v>
+        <v>931.2743648580437</v>
       </c>
       <c r="AC5" t="n">
-        <v>768.8948226900683</v>
+        <v>842.3948465277713</v>
       </c>
       <c r="AD5" t="n">
-        <v>621248.4156114343</v>
+        <v>680634.6567579446</v>
       </c>
       <c r="AE5" t="n">
-        <v>850019.4897853346</v>
+        <v>931274.3648580436</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.39331047474356e-06</v>
+        <v>2.634420824756748e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.18055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>768894.8226900683</v>
+        <v>842394.8465277713</v>
       </c>
     </row>
     <row r="6">
@@ -6769,28 +6769,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>571.2587512885183</v>
+        <v>642.4367923994977</v>
       </c>
       <c r="AB6" t="n">
-        <v>781.6214256703793</v>
+        <v>879.0103616719745</v>
       </c>
       <c r="AC6" t="n">
-        <v>707.0245738169584</v>
+        <v>795.1188464527914</v>
       </c>
       <c r="AD6" t="n">
-        <v>571258.7512885183</v>
+        <v>642436.7923994977</v>
       </c>
       <c r="AE6" t="n">
-        <v>781621.4256703793</v>
+        <v>879010.3616719744</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.429491966320485e-06</v>
+        <v>2.702831474506981e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.89699074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>707024.5738169585</v>
+        <v>795118.8464527915</v>
       </c>
     </row>
     <row r="7">
@@ -6875,28 +6875,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>559.2787912879193</v>
+        <v>630.4568323988987</v>
       </c>
       <c r="AB7" t="n">
-        <v>765.2299158790256</v>
+        <v>862.6188518806205</v>
       </c>
       <c r="AC7" t="n">
-        <v>692.1974467144629</v>
+        <v>780.2917193502959</v>
       </c>
       <c r="AD7" t="n">
-        <v>559278.7912879193</v>
+        <v>630456.8323988987</v>
       </c>
       <c r="AE7" t="n">
-        <v>765229.9158790256</v>
+        <v>862618.8518806205</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.440098742869078e-06</v>
+        <v>2.722886382246261e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.81886574074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>692197.4467144629</v>
+        <v>780291.719350296</v>
       </c>
     </row>
     <row r="8">
@@ -6981,28 +6981,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>561.009291748662</v>
+        <v>632.1873328596415</v>
       </c>
       <c r="AB8" t="n">
-        <v>767.597662953706</v>
+        <v>864.9865989553009</v>
       </c>
       <c r="AC8" t="n">
-        <v>694.3392193314897</v>
+        <v>782.4334919673227</v>
       </c>
       <c r="AD8" t="n">
-        <v>561009.291748662</v>
+        <v>632187.3328596415</v>
       </c>
       <c r="AE8" t="n">
-        <v>767597.662953706</v>
+        <v>864986.5989553009</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.439614169321173e-06</v>
+        <v>2.721970168187106e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.82175925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>694339.2193314898</v>
+        <v>782433.4919673227</v>
       </c>
     </row>
   </sheetData>
@@ -7278,28 +7278,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.9779696702792</v>
+        <v>458.6902522330512</v>
       </c>
       <c r="AB2" t="n">
-        <v>547.267503885522</v>
+        <v>627.6002390910058</v>
       </c>
       <c r="AC2" t="n">
-        <v>495.0370614094528</v>
+        <v>567.7029531146273</v>
       </c>
       <c r="AD2" t="n">
-        <v>399977.9696702792</v>
+        <v>458690.2522330512</v>
       </c>
       <c r="AE2" t="n">
-        <v>547267.503885522</v>
+        <v>627600.2390910059</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.546443932629157e-06</v>
+        <v>3.545325937877008e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.05729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>495037.0614094528</v>
+        <v>567702.9531146274</v>
       </c>
     </row>
     <row r="3">
@@ -7384,28 +7384,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>404.2104369057884</v>
+        <v>462.9227194685604</v>
       </c>
       <c r="AB3" t="n">
-        <v>553.0585522804218</v>
+        <v>633.3912874859057</v>
       </c>
       <c r="AC3" t="n">
-        <v>500.2754202733309</v>
+        <v>572.9413119785055</v>
       </c>
       <c r="AD3" t="n">
-        <v>404210.4369057884</v>
+        <v>462922.7194685604</v>
       </c>
       <c r="AE3" t="n">
-        <v>553058.5522804218</v>
+        <v>633391.2874859057</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.545219664515826e-06</v>
+        <v>3.542519221509522e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.06597222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>500275.4202733309</v>
+        <v>572941.3119785055</v>
       </c>
     </row>
   </sheetData>
@@ -7681,28 +7681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>940.4326632274431</v>
+        <v>1020.199787402593</v>
       </c>
       <c r="AB2" t="n">
-        <v>1286.741458788746</v>
+        <v>1395.88235716234</v>
       </c>
       <c r="AC2" t="n">
-        <v>1163.936659914927</v>
+        <v>1262.661304127959</v>
       </c>
       <c r="AD2" t="n">
-        <v>940432.6632274431</v>
+        <v>1020199.787402593</v>
       </c>
       <c r="AE2" t="n">
-        <v>1286741.458788746</v>
+        <v>1395882.357162341</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.0735128148817e-06</v>
+        <v>2.104070281291688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.08680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1163936.659914927</v>
+        <v>1262661.304127959</v>
       </c>
     </row>
     <row r="3">
@@ -7787,28 +7787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>630.2459301285185</v>
+        <v>709.8422830859743</v>
       </c>
       <c r="AB3" t="n">
-        <v>862.3302860899349</v>
+        <v>971.2375277495859</v>
       </c>
       <c r="AC3" t="n">
-        <v>780.0306938736686</v>
+        <v>878.5439812415962</v>
       </c>
       <c r="AD3" t="n">
-        <v>630245.9301285185</v>
+        <v>709842.2830859743</v>
       </c>
       <c r="AE3" t="n">
-        <v>862330.2860899349</v>
+        <v>971237.5277495859</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.352386568335691e-06</v>
+        <v>2.650658984044592e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.97627314814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>780030.6938736686</v>
+        <v>878543.9812415962</v>
       </c>
     </row>
     <row r="4">
@@ -7893,28 +7893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>544.751376701023</v>
+        <v>601.727919542859</v>
       </c>
       <c r="AB4" t="n">
-        <v>745.3528663369352</v>
+        <v>823.3106858808025</v>
       </c>
       <c r="AC4" t="n">
-        <v>674.2174348830555</v>
+        <v>744.735069544143</v>
       </c>
       <c r="AD4" t="n">
-        <v>544751.376701023</v>
+        <v>601727.919542859</v>
       </c>
       <c r="AE4" t="n">
-        <v>745352.8663369352</v>
+        <v>823310.6858808025</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.457342065671345e-06</v>
+        <v>2.85637030834441e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.11400462962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>674217.4348830555</v>
+        <v>744735.069544143</v>
       </c>
     </row>
     <row r="5">
@@ -7999,28 +7999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>506.4153523026438</v>
+        <v>574.7017554480142</v>
       </c>
       <c r="AB5" t="n">
-        <v>692.89982648904</v>
+        <v>786.3322958560249</v>
       </c>
       <c r="AC5" t="n">
-        <v>626.7704395399396</v>
+        <v>711.2858451638339</v>
       </c>
       <c r="AD5" t="n">
-        <v>506415.3523026438</v>
+        <v>574701.7554480141</v>
       </c>
       <c r="AE5" t="n">
-        <v>692899.82648904</v>
+        <v>786332.2958560248</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.488240964086962e-06</v>
+        <v>2.916931722218277e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.88252314814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>626770.4395399396</v>
+        <v>711285.8451638338</v>
       </c>
     </row>
     <row r="6">
@@ -8105,28 +8105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>508.3075508824467</v>
+        <v>576.5939540278168</v>
       </c>
       <c r="AB6" t="n">
-        <v>695.488816063836</v>
+        <v>788.9212854308211</v>
       </c>
       <c r="AC6" t="n">
-        <v>629.1123395833868</v>
+        <v>713.6277452072811</v>
       </c>
       <c r="AD6" t="n">
-        <v>508307.5508824467</v>
+        <v>576593.9540278169</v>
       </c>
       <c r="AE6" t="n">
-        <v>695488.816063836</v>
+        <v>788921.285430821</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.488240964086962e-06</v>
+        <v>2.916931722218277e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.88252314814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>629112.3395833868</v>
+        <v>713627.7452072811</v>
       </c>
     </row>
   </sheetData>
@@ -8402,28 +8402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1101.271275446703</v>
+        <v>1194.353042228719</v>
       </c>
       <c r="AB2" t="n">
-        <v>1506.807943725918</v>
+        <v>1634.166523514803</v>
       </c>
       <c r="AC2" t="n">
-        <v>1363.000308394948</v>
+        <v>1478.20396407767</v>
       </c>
       <c r="AD2" t="n">
-        <v>1101271.275446703</v>
+        <v>1194353.042228719</v>
       </c>
       <c r="AE2" t="n">
-        <v>1506807.943725918</v>
+        <v>1634166.523514803</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.844783015471486e-07</v>
+        <v>1.892859463796512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1363000.308394948</v>
+        <v>1478203.96407767</v>
       </c>
     </row>
     <row r="3">
@@ -8508,28 +8508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>719.1987187359593</v>
+        <v>788.9887309859663</v>
       </c>
       <c r="AB3" t="n">
-        <v>984.0394157827042</v>
+        <v>1079.529189461205</v>
       </c>
       <c r="AC3" t="n">
-        <v>890.1240750483962</v>
+        <v>976.5004387477599</v>
       </c>
       <c r="AD3" t="n">
-        <v>719198.7187359594</v>
+        <v>788988.7309859663</v>
       </c>
       <c r="AE3" t="n">
-        <v>984039.4157827041</v>
+        <v>1079529.189461205</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.278834571430355e-06</v>
+        <v>2.458819170882634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.41030092592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>890124.0750483962</v>
+        <v>976500.4387477599</v>
       </c>
     </row>
     <row r="4">
@@ -8614,28 +8614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>615.0939445579385</v>
+        <v>684.7986159533738</v>
       </c>
       <c r="AB4" t="n">
-        <v>841.5986709738413</v>
+        <v>936.9716775301443</v>
       </c>
       <c r="AC4" t="n">
-        <v>761.2776750072505</v>
+        <v>847.5484156746754</v>
       </c>
       <c r="AD4" t="n">
-        <v>615093.9445579385</v>
+        <v>684798.6159533737</v>
       </c>
       <c r="AE4" t="n">
-        <v>841598.6709738413</v>
+        <v>936971.6775301443</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.389019357380673e-06</v>
+        <v>2.670671798334844e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.42361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>761277.6750072505</v>
+        <v>847548.4156746754</v>
       </c>
     </row>
     <row r="5">
@@ -8720,28 +8720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>548.1284933687745</v>
+        <v>617.9184161102303</v>
       </c>
       <c r="AB5" t="n">
-        <v>749.9735863496252</v>
+        <v>845.4632375585775</v>
       </c>
       <c r="AC5" t="n">
-        <v>678.3971598629556</v>
+        <v>764.7734127810927</v>
       </c>
       <c r="AD5" t="n">
-        <v>548128.4933687744</v>
+        <v>617918.4161102303</v>
       </c>
       <c r="AE5" t="n">
-        <v>749973.5863496251</v>
+        <v>845463.2375585774</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.447813827534353e-06</v>
+        <v>2.783716107259071e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.96064814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>678397.1598629556</v>
+        <v>764773.4127810927</v>
       </c>
     </row>
     <row r="6">
@@ -8826,28 +8826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>532.8762655751121</v>
+        <v>602.6661883165681</v>
       </c>
       <c r="AB6" t="n">
-        <v>729.1048154015357</v>
+        <v>824.594466610488</v>
       </c>
       <c r="AC6" t="n">
-        <v>659.5200751246479</v>
+        <v>745.8963280427849</v>
       </c>
       <c r="AD6" t="n">
-        <v>532876.2655751122</v>
+        <v>602666.188316568</v>
       </c>
       <c r="AE6" t="n">
-        <v>729104.8154015357</v>
+        <v>824594.466610488</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.462841518599752e-06</v>
+        <v>2.812609895174404e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.84780092592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>659520.0751246478</v>
+        <v>745896.3280427849</v>
       </c>
     </row>
     <row r="7">
@@ -8932,28 +8932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>534.730288508178</v>
+        <v>604.5202112496337</v>
       </c>
       <c r="AB7" t="n">
-        <v>731.6415713722753</v>
+        <v>827.1312225812277</v>
       </c>
       <c r="AC7" t="n">
-        <v>661.8147266658993</v>
+        <v>748.1909795840365</v>
       </c>
       <c r="AD7" t="n">
-        <v>534730.288508178</v>
+        <v>604520.2112496337</v>
       </c>
       <c r="AE7" t="n">
-        <v>731641.5713722752</v>
+        <v>827131.2225812277</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.465199878876439e-06</v>
+        <v>2.817144321745059e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.83043981481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>661814.7266658994</v>
+        <v>748190.9795840365</v>
       </c>
     </row>
   </sheetData>
@@ -9229,28 +9229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1476.600879316074</v>
+        <v>1585.35132692438</v>
       </c>
       <c r="AB2" t="n">
-        <v>2020.350466113483</v>
+        <v>2169.147626262309</v>
       </c>
       <c r="AC2" t="n">
-        <v>1827.531053207301</v>
+        <v>1962.127221229648</v>
       </c>
       <c r="AD2" t="n">
-        <v>1476600.879316074</v>
+        <v>1585351.32692438</v>
       </c>
       <c r="AE2" t="n">
-        <v>2020350.466113484</v>
+        <v>2169147.626262309</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.313419297900377e-07</v>
+        <v>1.548726960886148e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.42592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>1827531.053207301</v>
+        <v>1962127.221229648</v>
       </c>
     </row>
     <row r="3">
@@ -9335,28 +9335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>889.1146816349943</v>
+        <v>973.5940775099888</v>
       </c>
       <c r="AB3" t="n">
-        <v>1216.525932384394</v>
+        <v>1332.114368788471</v>
       </c>
       <c r="AC3" t="n">
-        <v>1100.422404802496</v>
+        <v>1204.979243065558</v>
       </c>
       <c r="AD3" t="n">
-        <v>889114.6816349943</v>
+        <v>973594.0775099888</v>
       </c>
       <c r="AE3" t="n">
-        <v>1216525.932384394</v>
+        <v>1332114.368788471</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.152888725609236e-06</v>
+        <v>2.147744253322627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.28703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1100422.404802496</v>
+        <v>1204979.243065558</v>
       </c>
     </row>
     <row r="4">
@@ -9441,28 +9441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>755.5564252114607</v>
+        <v>828.0283065016574</v>
       </c>
       <c r="AB4" t="n">
-        <v>1033.785633771291</v>
+        <v>1132.944858986291</v>
       </c>
       <c r="AC4" t="n">
-        <v>935.1225838114078</v>
+        <v>1024.818191742735</v>
       </c>
       <c r="AD4" t="n">
-        <v>755556.4252114607</v>
+        <v>828028.3065016575</v>
       </c>
       <c r="AE4" t="n">
-        <v>1033785.633771291</v>
+        <v>1132944.858986291</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.276340672901032e-06</v>
+        <v>2.377725867738477e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.00231481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>935122.5838114078</v>
+        <v>1024818.191742735</v>
       </c>
     </row>
     <row r="5">
@@ -9547,28 +9547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>679.9709747621972</v>
+        <v>752.3575151978223</v>
       </c>
       <c r="AB5" t="n">
-        <v>930.3662858718785</v>
+        <v>1029.408743964681</v>
       </c>
       <c r="AC5" t="n">
-        <v>841.5734333255491</v>
+        <v>931.1634182249375</v>
       </c>
       <c r="AD5" t="n">
-        <v>679970.9747621972</v>
+        <v>752357.5151978222</v>
       </c>
       <c r="AE5" t="n">
-        <v>930366.2858718785</v>
+        <v>1029408.743964681</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.343095778190464e-06</v>
+        <v>2.502085565756653e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.40335648148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>841573.4333255491</v>
+        <v>931163.4182249375</v>
       </c>
     </row>
     <row r="6">
@@ -9653,28 +9653,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>635.8791915136123</v>
+        <v>696.3435582190109</v>
       </c>
       <c r="AB6" t="n">
-        <v>870.0379628389725</v>
+        <v>952.7679768648954</v>
       </c>
       <c r="AC6" t="n">
-        <v>787.0027607715704</v>
+        <v>861.8371383711631</v>
       </c>
       <c r="AD6" t="n">
-        <v>635879.1915136123</v>
+        <v>696343.5582190109</v>
       </c>
       <c r="AE6" t="n">
-        <v>870037.9628389725</v>
+        <v>952767.9768648954</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.385446360451801e-06</v>
+        <v>2.580981488369294e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.05613425925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>787002.7607715704</v>
+        <v>861837.138371163</v>
       </c>
     </row>
     <row r="7">
@@ -9759,28 +9759,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>593.6165254378253</v>
+        <v>666.0883172194708</v>
       </c>
       <c r="AB7" t="n">
-        <v>812.2123186168433</v>
+        <v>911.3714213622949</v>
       </c>
       <c r="AC7" t="n">
-        <v>734.6959148751997</v>
+        <v>824.3914120253003</v>
       </c>
       <c r="AD7" t="n">
-        <v>593616.5254378254</v>
+        <v>666088.3172194709</v>
       </c>
       <c r="AE7" t="n">
-        <v>812212.3186168433</v>
+        <v>911371.4213622949</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.411280215631216e-06</v>
+        <v>2.629108001163005e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.85358796296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>734695.9148751997</v>
+        <v>824391.4120253003</v>
       </c>
     </row>
     <row r="8">
@@ -9865,28 +9865,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>582.0321115677597</v>
+        <v>654.5039033494054</v>
       </c>
       <c r="AB8" t="n">
-        <v>796.3620124915489</v>
+        <v>895.5211152370008</v>
       </c>
       <c r="AC8" t="n">
-        <v>720.3583397204591</v>
+        <v>810.0538368705597</v>
       </c>
       <c r="AD8" t="n">
-        <v>582032.1115677597</v>
+        <v>654503.9033494054</v>
       </c>
       <c r="AE8" t="n">
-        <v>796362.0124915489</v>
+        <v>895521.1152370007</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.421603170057417e-06</v>
+        <v>2.648338882299836e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.77546296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>720358.3397204591</v>
+        <v>810053.8368705597</v>
       </c>
     </row>
     <row r="9">
@@ -9971,28 +9971,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>584.240043056171</v>
+        <v>656.7118348378166</v>
       </c>
       <c r="AB9" t="n">
-        <v>799.3830017610558</v>
+        <v>898.5421045065075</v>
       </c>
       <c r="AC9" t="n">
-        <v>723.0910100140693</v>
+        <v>812.7865071641701</v>
       </c>
       <c r="AD9" t="n">
-        <v>584240.0430561709</v>
+        <v>656711.8348378165</v>
       </c>
       <c r="AE9" t="n">
-        <v>799383.0017610558</v>
+        <v>898542.1045065075</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.421656108285244e-06</v>
+        <v>2.648437502203103e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.77546296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>723091.0100140693</v>
+        <v>812786.50716417</v>
       </c>
     </row>
   </sheetData>
@@ -10268,28 +10268,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>793.0365775940586</v>
+        <v>870.7947106718012</v>
       </c>
       <c r="AB2" t="n">
-        <v>1085.067631768786</v>
+        <v>1191.459739892476</v>
       </c>
       <c r="AC2" t="n">
-        <v>981.5102998947578</v>
+        <v>1077.748494541385</v>
       </c>
       <c r="AD2" t="n">
-        <v>793036.5775940586</v>
+        <v>870794.7106718012</v>
       </c>
       <c r="AE2" t="n">
-        <v>1085067.631768786</v>
+        <v>1191459.739892476</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.173369573604977e-06</v>
+        <v>2.352016206686834e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.12326388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>981510.2998947578</v>
+        <v>1077748.494541385</v>
       </c>
     </row>
     <row r="3">
@@ -10374,28 +10374,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>553.7385262252577</v>
+        <v>620.4614271599119</v>
       </c>
       <c r="AB3" t="n">
-        <v>757.6494808010476</v>
+        <v>848.9426974664815</v>
       </c>
       <c r="AC3" t="n">
-        <v>685.3404777211198</v>
+        <v>767.920797918839</v>
       </c>
       <c r="AD3" t="n">
-        <v>553738.5262252577</v>
+        <v>620461.4271599118</v>
       </c>
       <c r="AE3" t="n">
-        <v>757649.4808010476</v>
+        <v>848942.6974664815</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.432406599250003e-06</v>
+        <v>2.871255239430126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.56828703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>685340.4777211198</v>
+        <v>767920.7979188389</v>
       </c>
     </row>
     <row r="4">
@@ -10480,28 +10480,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>484.2037815549353</v>
+        <v>550.8413416350179</v>
       </c>
       <c r="AB4" t="n">
-        <v>662.5089754866822</v>
+        <v>753.6854250299183</v>
       </c>
       <c r="AC4" t="n">
-        <v>599.2800487034195</v>
+        <v>681.7547458691998</v>
       </c>
       <c r="AD4" t="n">
-        <v>484203.7815549353</v>
+        <v>550841.3416350179</v>
       </c>
       <c r="AE4" t="n">
-        <v>662508.9754866821</v>
+        <v>753685.4250299183</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.50783259146192e-06</v>
+        <v>3.022446441314476e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>599280.0487034195</v>
+        <v>681754.7458691999</v>
       </c>
     </row>
     <row r="5">
@@ -10586,28 +10586,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>481.1028155893853</v>
+        <v>547.7403756694679</v>
       </c>
       <c r="AB5" t="n">
-        <v>658.2660970476533</v>
+        <v>749.4425465908895</v>
       </c>
       <c r="AC5" t="n">
-        <v>595.4421046276943</v>
+        <v>677.9168017934747</v>
       </c>
       <c r="AD5" t="n">
-        <v>481102.8155893853</v>
+        <v>547740.3756694678</v>
       </c>
       <c r="AE5" t="n">
-        <v>658266.0970476533</v>
+        <v>749442.5465908895</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.512757903026252e-06</v>
+        <v>3.032319215317554e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.95486111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>595442.1046276944</v>
+        <v>677916.8017934747</v>
       </c>
     </row>
   </sheetData>
@@ -10883,28 +10883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>585.5520692861306</v>
+        <v>659.9834714796633</v>
       </c>
       <c r="AB2" t="n">
-        <v>801.1781739313989</v>
+        <v>903.0185020943043</v>
       </c>
       <c r="AC2" t="n">
-        <v>724.7148534720147</v>
+        <v>816.8356836488509</v>
       </c>
       <c r="AD2" t="n">
-        <v>585552.0692861306</v>
+        <v>659983.4714796633</v>
       </c>
       <c r="AE2" t="n">
-        <v>801178.1739313989</v>
+        <v>903018.5020943043</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.350525687875434e-06</v>
+        <v>2.825384198098698e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.7806712962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>724714.8534720148</v>
+        <v>816835.6836488509</v>
       </c>
     </row>
     <row r="3">
@@ -10989,28 +10989,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>455.7860679561983</v>
+        <v>509.0124024991096</v>
       </c>
       <c r="AB3" t="n">
-        <v>623.6266060398481</v>
+        <v>696.4532251416131</v>
       </c>
       <c r="AC3" t="n">
-        <v>564.108558024843</v>
+        <v>629.9847068123374</v>
       </c>
       <c r="AD3" t="n">
-        <v>455786.0679561984</v>
+        <v>509012.4024991096</v>
       </c>
       <c r="AE3" t="n">
-        <v>623626.6060398481</v>
+        <v>696453.225141613</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.539938138577992e-06</v>
+        <v>3.221646890428558e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.20949074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>564108.558024843</v>
+        <v>629984.7068123374</v>
       </c>
     </row>
     <row r="4">
@@ -11095,28 +11095,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>453.8493920754996</v>
+        <v>507.075726618411</v>
       </c>
       <c r="AB4" t="n">
-        <v>620.9767606597663</v>
+        <v>693.8033797615312</v>
       </c>
       <c r="AC4" t="n">
-        <v>561.7116101687549</v>
+        <v>627.5877589562492</v>
       </c>
       <c r="AD4" t="n">
-        <v>453849.3920754996</v>
+        <v>507075.726618411</v>
       </c>
       <c r="AE4" t="n">
-        <v>620976.7606597664</v>
+        <v>693803.3797615313</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.54500902308499e-06</v>
+        <v>3.232255497939751e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>561711.6101687548</v>
+        <v>627587.7589562492</v>
       </c>
     </row>
   </sheetData>
@@ -19589,28 +19589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.9861785584711</v>
+        <v>526.6731932695859</v>
       </c>
       <c r="AB2" t="n">
-        <v>622.5321620772481</v>
+        <v>720.6174982128784</v>
       </c>
       <c r="AC2" t="n">
-        <v>563.1185662579718</v>
+        <v>651.8427755764516</v>
       </c>
       <c r="AD2" t="n">
-        <v>454986.1785584711</v>
+        <v>526673.193269586</v>
       </c>
       <c r="AE2" t="n">
-        <v>622532.1620772481</v>
+        <v>720617.4982128785</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.496476127570605e-06</v>
+        <v>3.253123264372356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.93287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>563118.5662579718</v>
+        <v>651842.7755764516</v>
       </c>
     </row>
     <row r="3">
@@ -19695,28 +19695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>424.2534850945905</v>
+        <v>485.6752041113623</v>
       </c>
       <c r="AB3" t="n">
-        <v>580.4823350492208</v>
+        <v>664.5222407429674</v>
       </c>
       <c r="AC3" t="n">
-        <v>525.0819157041966</v>
+        <v>601.1011707492804</v>
       </c>
       <c r="AD3" t="n">
-        <v>424253.4850945905</v>
+        <v>485675.2041113623</v>
       </c>
       <c r="AE3" t="n">
-        <v>580482.3350492207</v>
+        <v>664522.2407429673</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.557633612102853e-06</v>
+        <v>3.386070814992712e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.46412037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>525081.9157041966</v>
+        <v>601101.1707492804</v>
       </c>
     </row>
   </sheetData>
@@ -19992,28 +19992,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>383.4642286019991</v>
+        <v>449.9655291347115</v>
       </c>
       <c r="AB2" t="n">
-        <v>524.6726748210626</v>
+        <v>615.6626880402398</v>
       </c>
       <c r="AC2" t="n">
-        <v>474.5986511188637</v>
+        <v>556.9047051816883</v>
       </c>
       <c r="AD2" t="n">
-        <v>383464.2286019991</v>
+        <v>449965.5291347115</v>
       </c>
       <c r="AE2" t="n">
-        <v>524672.6748210626</v>
+        <v>615662.6880402399</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.509006048803278e-06</v>
+        <v>3.589211575198001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.69965277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>474598.6511188637</v>
+        <v>556904.7051816883</v>
       </c>
     </row>
   </sheetData>
@@ -20289,28 +20289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1010.814118653109</v>
+        <v>1103.000169062337</v>
       </c>
       <c r="AB2" t="n">
-        <v>1383.040471112814</v>
+        <v>1509.173492244233</v>
       </c>
       <c r="AC2" t="n">
-        <v>1251.045029659299</v>
+        <v>1365.140092282742</v>
       </c>
       <c r="AD2" t="n">
-        <v>1010814.118653109</v>
+        <v>1103000.169062337</v>
       </c>
       <c r="AE2" t="n">
-        <v>1383040.471112814</v>
+        <v>1509173.492244233</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.029148489562479e-06</v>
+        <v>1.997143118250162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1251045.029659299</v>
+        <v>1365140.092282742</v>
       </c>
     </row>
     <row r="3">
@@ -20395,28 +20395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>679.7870674175157</v>
+        <v>748.8413538784167</v>
       </c>
       <c r="AB3" t="n">
-        <v>930.114655729466</v>
+        <v>1024.597776925381</v>
       </c>
       <c r="AC3" t="n">
-        <v>841.3458184107633</v>
+        <v>926.8116031276335</v>
       </c>
       <c r="AD3" t="n">
-        <v>679787.0674175157</v>
+        <v>748841.3538784167</v>
       </c>
       <c r="AE3" t="n">
-        <v>930114.655729466</v>
+        <v>1024597.776925381</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.315586233226162e-06</v>
+        <v>2.552997957825574e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.18460648148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>841345.8184107633</v>
+        <v>926811.6031276335</v>
       </c>
     </row>
     <row r="4">
@@ -20501,28 +20501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>581.1167899189768</v>
+        <v>650.0857355253061</v>
       </c>
       <c r="AB4" t="n">
-        <v>795.1096290305431</v>
+        <v>889.4759831042602</v>
       </c>
       <c r="AC4" t="n">
-        <v>719.2254819792404</v>
+        <v>804.5856436641718</v>
       </c>
       <c r="AD4" t="n">
-        <v>581116.7899189768</v>
+        <v>650085.7355253061</v>
       </c>
       <c r="AE4" t="n">
-        <v>795109.6290305431</v>
+        <v>889475.9831042602</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.4236027871121e-06</v>
+        <v>2.762612526994411e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.25868055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>719225.4819792404</v>
+        <v>804585.6436641718</v>
       </c>
     </row>
     <row r="5">
@@ -20607,28 +20607,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>524.1908516142076</v>
+        <v>593.2450485665574</v>
       </c>
       <c r="AB5" t="n">
-        <v>717.2210488468053</v>
+        <v>811.7040475731716</v>
       </c>
       <c r="AC5" t="n">
-        <v>648.7704785709296</v>
+        <v>734.2361525065731</v>
       </c>
       <c r="AD5" t="n">
-        <v>524190.8516142076</v>
+        <v>593245.0485665575</v>
       </c>
       <c r="AE5" t="n">
-        <v>717221.0488468052</v>
+        <v>811704.0475731716</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.471850181181152e-06</v>
+        <v>2.856240367889824e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.88831018518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>648770.4785709296</v>
+        <v>734236.1525065731</v>
       </c>
     </row>
     <row r="6">
@@ -20713,28 +20713,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>521.028566722652</v>
+        <v>590.082763675002</v>
       </c>
       <c r="AB6" t="n">
-        <v>712.8942711480157</v>
+        <v>807.377269874382</v>
       </c>
       <c r="AC6" t="n">
-        <v>644.8566424630419</v>
+        <v>730.3223163986855</v>
       </c>
       <c r="AD6" t="n">
-        <v>521028.5667226521</v>
+        <v>590082.7636750019</v>
       </c>
       <c r="AE6" t="n">
-        <v>712894.2711480157</v>
+        <v>807377.2698743821</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.475339946768236e-06</v>
+        <v>2.863012530893741e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.86516203703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>644856.6424630419</v>
+        <v>730322.3163986856</v>
       </c>
     </row>
   </sheetData>
@@ -21010,28 +21010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1365.911129096157</v>
+        <v>1473.792605433277</v>
       </c>
       <c r="AB2" t="n">
-        <v>1868.899866575458</v>
+        <v>2016.508061894741</v>
       </c>
       <c r="AC2" t="n">
-        <v>1690.534686326933</v>
+        <v>1824.055362654346</v>
       </c>
       <c r="AD2" t="n">
-        <v>1365911.129096157</v>
+        <v>1473792.605433277</v>
       </c>
       <c r="AE2" t="n">
-        <v>1868899.866575458</v>
+        <v>2016508.061894741</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.680954928636867e-07</v>
+        <v>1.628887637051412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.79224537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1690534.686326933</v>
+        <v>1824055.362654346</v>
       </c>
     </row>
     <row r="3">
@@ -21116,28 +21116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>848.6811019911332</v>
+        <v>920.6021757244312</v>
       </c>
       <c r="AB3" t="n">
-        <v>1161.202924912024</v>
+        <v>1259.608510927761</v>
       </c>
       <c r="AC3" t="n">
-        <v>1050.379347516961</v>
+        <v>1139.393242516463</v>
       </c>
       <c r="AD3" t="n">
-        <v>848681.1019911332</v>
+        <v>920602.1757244312</v>
       </c>
       <c r="AE3" t="n">
-        <v>1161202.924912024</v>
+        <v>1259608.510927761</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.182441822413847e-06</v>
+        <v>2.218724647110796e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.06134259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>1050379.347516961</v>
+        <v>1139393.242516463</v>
       </c>
     </row>
     <row r="4">
@@ -21222,28 +21222,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>711.5277283908691</v>
+        <v>783.4487126156159</v>
       </c>
       <c r="AB4" t="n">
-        <v>973.543628372342</v>
+        <v>1071.94909191853</v>
       </c>
       <c r="AC4" t="n">
-        <v>880.6299908575492</v>
+        <v>969.6437750758247</v>
       </c>
       <c r="AD4" t="n">
-        <v>711527.7283908691</v>
+        <v>783448.7126156159</v>
       </c>
       <c r="AE4" t="n">
-        <v>973543.628372342</v>
+        <v>1071949.09191853</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.302650335598931e-06</v>
+        <v>2.444282967140297e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.85763888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>880629.9908575491</v>
+        <v>969643.7750758247</v>
       </c>
     </row>
     <row r="5">
@@ -21328,28 +21328,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>650.4489456975049</v>
+        <v>722.1993377216596</v>
       </c>
       <c r="AB5" t="n">
-        <v>889.9729432855645</v>
+        <v>988.1449950569058</v>
       </c>
       <c r="AC5" t="n">
-        <v>805.0351746632605</v>
+        <v>893.8378235988849</v>
       </c>
       <c r="AD5" t="n">
-        <v>650448.9456975049</v>
+        <v>722199.3377216596</v>
       </c>
       <c r="AE5" t="n">
-        <v>889972.9432855645</v>
+        <v>988144.9950569058</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.368519476482765e-06</v>
+        <v>2.56787931124172e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.28472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>805035.1746632605</v>
+        <v>893837.823598885</v>
       </c>
     </row>
     <row r="6">
@@ -21434,28 +21434,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>593.1269348045066</v>
+        <v>664.9625781746818</v>
       </c>
       <c r="AB6" t="n">
-        <v>811.5424391131222</v>
+        <v>909.8311355371128</v>
       </c>
       <c r="AC6" t="n">
-        <v>734.0899677311321</v>
+        <v>822.9981289174689</v>
       </c>
       <c r="AD6" t="n">
-        <v>593126.9348045066</v>
+        <v>664962.5781746818</v>
       </c>
       <c r="AE6" t="n">
-        <v>811542.4391131222</v>
+        <v>909831.1355371128</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.410581780385893e-06</v>
+        <v>2.646804691429663e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.94907407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>734089.9677311321</v>
+        <v>822998.1289174688</v>
       </c>
     </row>
     <row r="7">
@@ -21540,28 +21540,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>570.8091994387655</v>
+        <v>642.6448428089407</v>
       </c>
       <c r="AB7" t="n">
-        <v>781.0063289967197</v>
+        <v>879.2950254207104</v>
       </c>
       <c r="AC7" t="n">
-        <v>706.4681811065393</v>
+        <v>795.3763422928762</v>
       </c>
       <c r="AD7" t="n">
-        <v>570809.1994387655</v>
+        <v>642644.8428089407</v>
       </c>
       <c r="AE7" t="n">
-        <v>781006.3289967197</v>
+        <v>879295.0254207104</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.429371032890844e-06</v>
+        <v>2.682060698823262e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.80439814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>706468.1811065393</v>
+        <v>795376.3422928762</v>
       </c>
     </row>
     <row r="8">
@@ -21646,28 +21646,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>570.5446290356507</v>
+        <v>642.3802724058261</v>
       </c>
       <c r="AB8" t="n">
-        <v>780.6443320991558</v>
+        <v>878.9330285231464</v>
       </c>
       <c r="AC8" t="n">
-        <v>706.1407326848129</v>
+        <v>795.0488938711499</v>
       </c>
       <c r="AD8" t="n">
-        <v>570544.6290356508</v>
+        <v>642380.272405826</v>
       </c>
       <c r="AE8" t="n">
-        <v>780644.3320991558</v>
+        <v>878933.0285231464</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.431346039546195e-06</v>
+        <v>2.685766585964067e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.78993055555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>706140.7326848129</v>
+        <v>795048.8938711499</v>
       </c>
     </row>
   </sheetData>
@@ -21943,28 +21943,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>384.4594003432175</v>
+        <v>448.4954997398307</v>
       </c>
       <c r="AB2" t="n">
-        <v>526.0343127012763</v>
+        <v>613.6513289690441</v>
       </c>
       <c r="AC2" t="n">
-        <v>475.8303361908606</v>
+        <v>555.0853073972874</v>
       </c>
       <c r="AD2" t="n">
-        <v>384459.4003432175</v>
+        <v>448495.4997398307</v>
       </c>
       <c r="AE2" t="n">
-        <v>526034.3127012764</v>
+        <v>613651.3289690441</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.402493974465151e-06</v>
+        <v>3.507530995526457e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.14930555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>475830.3361908606</v>
+        <v>555085.3073972873</v>
       </c>
     </row>
   </sheetData>
@@ -22240,28 +22240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>658.3225269740113</v>
+        <v>733.8495635938197</v>
       </c>
       <c r="AB2" t="n">
-        <v>900.7459245459713</v>
+        <v>1004.085348066886</v>
       </c>
       <c r="AC2" t="n">
-        <v>814.7799977121481</v>
+        <v>908.2568516900191</v>
       </c>
       <c r="AD2" t="n">
-        <v>658322.5269740113</v>
+        <v>733849.5635938196</v>
       </c>
       <c r="AE2" t="n">
-        <v>900745.9245459713</v>
+        <v>1004085.348066886</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.28498609476611e-06</v>
+        <v>2.646150608864998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.23784722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>814779.9977121481</v>
+        <v>908256.851690019</v>
       </c>
     </row>
     <row r="3">
@@ -22346,28 +22346,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>478.3896408479083</v>
+        <v>532.4594652281738</v>
       </c>
       <c r="AB3" t="n">
-        <v>654.5538116695427</v>
+        <v>728.5345307789212</v>
       </c>
       <c r="AC3" t="n">
-        <v>592.0841145558453</v>
+        <v>659.0042176660162</v>
       </c>
       <c r="AD3" t="n">
-        <v>478389.6408479083</v>
+        <v>532459.4652281739</v>
       </c>
       <c r="AE3" t="n">
-        <v>654553.8116695427</v>
+        <v>728534.5307789212</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.516375300960612e-06</v>
+        <v>3.12264657356866e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.2181712962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>592084.1145558453</v>
+        <v>659004.2176660162</v>
       </c>
     </row>
     <row r="4">
@@ -22452,28 +22452,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>467.911096357513</v>
+        <v>521.9809207377787</v>
       </c>
       <c r="AB4" t="n">
-        <v>640.2166048170272</v>
+        <v>714.1973239264057</v>
       </c>
       <c r="AC4" t="n">
-        <v>579.1152306029378</v>
+        <v>646.0353337131085</v>
       </c>
       <c r="AD4" t="n">
-        <v>467911.096357513</v>
+        <v>521980.9207377787</v>
       </c>
       <c r="AE4" t="n">
-        <v>640216.6048170272</v>
+        <v>714197.3239264057</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.533952885475895e-06</v>
+        <v>3.158843802594675e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.09085648148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>579115.2306029378</v>
+        <v>646035.3337131084</v>
       </c>
     </row>
   </sheetData>
@@ -22749,28 +22749,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>857.2145992806666</v>
+        <v>947.2197170562833</v>
       </c>
       <c r="AB2" t="n">
-        <v>1172.878832374894</v>
+        <v>1296.027805261048</v>
       </c>
       <c r="AC2" t="n">
-        <v>1060.940922758813</v>
+        <v>1172.336730513382</v>
       </c>
       <c r="AD2" t="n">
-        <v>857214.5992806666</v>
+        <v>947219.7170562834</v>
       </c>
       <c r="AE2" t="n">
-        <v>1172878.832374894</v>
+        <v>1296027.805261048</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.123739469858542e-06</v>
+        <v>2.226334783467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.57465277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1060940.922758813</v>
+        <v>1172336.730513382</v>
       </c>
     </row>
     <row r="3">
@@ -22855,28 +22855,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>589.9917569983447</v>
+        <v>657.559600970986</v>
       </c>
       <c r="AB3" t="n">
-        <v>807.2527505244486</v>
+        <v>899.7020555307122</v>
       </c>
       <c r="AC3" t="n">
-        <v>730.2096810007455</v>
+        <v>813.835754090626</v>
       </c>
       <c r="AD3" t="n">
-        <v>589991.7569983447</v>
+        <v>657559.6009709861</v>
       </c>
       <c r="AE3" t="n">
-        <v>807252.7505244486</v>
+        <v>899702.0555307122</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.393326006321533e-06</v>
+        <v>2.760435346258041e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.75347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>730209.6810007455</v>
+        <v>813835.754090626</v>
       </c>
     </row>
     <row r="4">
@@ -22961,28 +22961,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>518.5951789573454</v>
+        <v>574.9018051097643</v>
       </c>
       <c r="AB4" t="n">
-        <v>709.5648026540315</v>
+        <v>786.6060126287997</v>
       </c>
       <c r="AC4" t="n">
-        <v>641.8449337691852</v>
+        <v>711.5334387919788</v>
       </c>
       <c r="AD4" t="n">
-        <v>518595.1789573454</v>
+        <v>574901.8051097642</v>
       </c>
       <c r="AE4" t="n">
-        <v>709564.8026540315</v>
+        <v>786606.0126287997</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.486546460983416e-06</v>
+        <v>2.945122229927334e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>641844.9337691852</v>
+        <v>711533.4387919789</v>
       </c>
     </row>
     <row r="5">
@@ -23067,28 +23067,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>495.0507980503327</v>
+        <v>562.5333011684024</v>
       </c>
       <c r="AB5" t="n">
-        <v>677.3503419922793</v>
+        <v>769.6828798763453</v>
       </c>
       <c r="AC5" t="n">
-        <v>612.7049760197111</v>
+        <v>696.2254260776527</v>
       </c>
       <c r="AD5" t="n">
-        <v>495050.7980503328</v>
+        <v>562533.3011684024</v>
       </c>
       <c r="AE5" t="n">
-        <v>677350.3419922793</v>
+        <v>769682.8798763453</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.499111695309426e-06</v>
+        <v>2.970016272534853e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.92592592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>612704.9760197111</v>
+        <v>696225.4260776527</v>
       </c>
     </row>
   </sheetData>
